--- a/output/panel_manufacturers.xlsx
+++ b/output/panel_manufacturers.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Public (OTC Pink: YGEHY)</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14,533 (Dec 31st 2015)</t>
+          <t>14533</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2006; 16 years ago</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>September 2001</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1985; 37 years ago</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3,660 (2021)</t>
+          <t>3660</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -829,7 +829,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3,034 (incl. temporary workers) (2016)[2]</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>300 (October 2011)</t>
+          <t>300</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Public KK</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15 September 1912; 109 years agoTokyo, Japan[1]</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>52,876 (2020) (Foxconn 803,126)[2]</t>
+          <t>52876</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Public (Kabushiki gaisha)</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>March 13, 1918; 104 years agoOsaka, Japan</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>279,385 (2022)</t>
+          <t>279385</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Public (Allmennaksjeselskap)</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1996; 26 years agoOslo, Norway[1]</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4,200 (end 2010)[3]</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1999; 23 years agoThalheim, Germany</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8,500 (2018)</t>
+          <t>8500</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Public (TWSE: 3576)</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>~2,400 (2013)</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Public (OTC:6244)</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>~3,500</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Private conglomerate</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1870; 152 years ago[1]</t>
+          <t>1870</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Private conglomerate</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1870; 152 years ago[1]</t>
+          <t>1870</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Public KK</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1959; 63 years ago</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>70,153 (March 31, 2017)</t>
+          <t>70153</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Public (Nasdaq: JASO)</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2005 as JingAo Solar Co. Ltd.</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Privately held company</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1981Málaga, Spain</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1142 (2007)</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>&lt;30 (2022)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Public OTC Pink: ESLRQ</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Public (Emerging stock) (GTSM: 3599)</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>810 (as of Aug 2010)</t>
+          <t>810</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Private limited company</t>
+          <t>Limited company</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11 September 2000[1]</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Public (FWB: ES6)</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1517 (as of 1 February 2010)</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1985; 37 years ago</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3,660 (2021)</t>
+          <t>3660</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Public (OTC Pink: YGEHY)</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14,533 (Dec 31st 2015)</t>
+          <t>14533</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1996; 26 years ago</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1999 (as First Solar Holdings, LLC)</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>6,400[2] (2020)</t>
+          <t>6400</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1999; 23 years agoThalheim, Germany</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>8,500 (2018)</t>
+          <t>8500</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Public company</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>13,478 (2020)[2]</t>
+          <t>13478</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>February 14, 2000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Public (Nasdaq: JASO)</t>
+          <t>Public</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2005 as JingAo Solar Co. Ltd.</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>over 13,500[2]</t>
+          <t>13500</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>over 13,500[2]</t>
+          <t>13500</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
